--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55253.10861767625</v>
+        <v>-63558.00382533105</v>
       </c>
     </row>
     <row r="7">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>342.8813756254751</v>
+        <v>230.4183515952952</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353307034</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426228</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>134.8967801895889</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>50.79431959610182</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>244.9043102020992</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -1666,7 +1666,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>148.9402274414022</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.6232235330697</v>
+        <v>31.62322353307035</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>128.9159903189178</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.81179447522067</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>244.9043102020997</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>192.3085274337932</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>163.7152510849626</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>37.69870921092682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>179.1735387309199</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>361.4649050157285</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>24.83686707040875</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>100.0922726483722</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>149.0818692512485</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4490654225681</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>210.7834903320656</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>91.66975178376411</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.9938507929472</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>368.5724630577456</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>61.87667076770165</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>5.033780699103638</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>361.4649050157285</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>304.6279919443828</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>1.104912620080257</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.9919945419402</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>340.7470920849102</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>361.464905015728</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H33" t="n">
-        <v>31.62322353306969</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>143.3193010541979</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.033780699103638</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>268.3829272931349</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>149.6157531058523</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>87.97507164490173</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.64289248605954</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>388.784704315103</v>
+        <v>146.6547211394704</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,16 +3666,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>109.8004519292408</v>
       </c>
       <c r="Y40" t="n">
-        <v>160.9395803951253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>328.5107569703942</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>41.21687249364525</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -3802,10 +3802,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>126.5917462427869</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>64.65234145753891</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>194.7281928688459</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>158.6851702988635</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>167.8191401812166</v>
+        <v>90.34256301799454</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2360.327577447736</v>
+        <v>713.727106082877</v>
       </c>
       <c r="C11" t="n">
-        <v>2013.98275358362</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
         <v>805.4408022867025</v>
@@ -5056,37 +5056,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438364</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447736</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447736</v>
+        <v>1122.013229783224</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447736</v>
+        <v>1122.013229783224</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447736</v>
+        <v>713.727106082877</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663915</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030337</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.024555049587</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765407</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927023</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235914</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R12" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233593</v>
       </c>
       <c r="S12" t="n">
-        <v>1632.030085633326</v>
+        <v>1632.030085633327</v>
       </c>
       <c r="T12" t="n">
-        <v>1505.938530508979</v>
+        <v>1505.93853050898</v>
       </c>
       <c r="U12" t="n">
-        <v>1329.66869333286</v>
+        <v>1329.668693332861</v>
       </c>
       <c r="V12" t="n">
-        <v>1130.551175394859</v>
+        <v>1130.55117539486</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280539</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669338</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461546</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.4659254778325</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="C13" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="D13" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L13" t="n">
-        <v>326.7831174369939</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M13" t="n">
-        <v>457.3875097755233</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N13" t="n">
-        <v>584.8864215794127</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O13" t="n">
-        <v>702.6523029271744</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P13" t="n">
-        <v>803.4213591048579</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q13" t="n">
-        <v>873.1886303355135</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R13" t="n">
-        <v>889.6597230122809</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="S13" t="n">
-        <v>889.6597230122809</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="T13" t="n">
-        <v>889.6597230122809</v>
+        <v>693.9257909851001</v>
       </c>
       <c r="U13" t="n">
-        <v>889.6597230122809</v>
+        <v>693.9257909851001</v>
       </c>
       <c r="V13" t="n">
-        <v>602.7042148827113</v>
+        <v>406.9702828555306</v>
       </c>
       <c r="W13" t="n">
-        <v>602.7042148827113</v>
+        <v>406.9702828555306</v>
       </c>
       <c r="X13" t="n">
-        <v>602.7042148827113</v>
+        <v>406.9702828555306</v>
       </c>
       <c r="Y13" t="n">
-        <v>375.2845441968196</v>
+        <v>179.5506121696388</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>294.5846426621863</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="C14" t="n">
-        <v>294.5846426621863</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D14" t="n">
-        <v>294.5846426621863</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E14" t="n">
-        <v>294.5846426621863</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>1889.485634438362</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1526.868684372189</v>
+        <v>1698.574590469926</v>
       </c>
       <c r="W14" t="n">
-        <v>1122.013229783222</v>
+        <v>1293.719135880959</v>
       </c>
       <c r="X14" t="n">
-        <v>702.8707663625329</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="Y14" t="n">
-        <v>294.5846426621863</v>
+        <v>874.5766724602698</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663915</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030337</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.024555049587</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765407</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927023</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235914</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5378,31 +5378,31 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R15" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233593</v>
       </c>
       <c r="S15" t="n">
-        <v>1632.030085633326</v>
+        <v>1632.030085633327</v>
       </c>
       <c r="T15" t="n">
-        <v>1505.938530508979</v>
+        <v>1505.93853050898</v>
       </c>
       <c r="U15" t="n">
-        <v>1329.66869333286</v>
+        <v>1329.668693332861</v>
       </c>
       <c r="V15" t="n">
-        <v>1130.551175394859</v>
+        <v>1130.55117539486</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280539</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669338</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461546</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.20655154895472</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="C16" t="n">
-        <v>47.20655154895472</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="D16" t="n">
-        <v>47.20655154895472</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895472</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895472</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M16" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N16" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O16" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P16" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q16" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R16" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="S16" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="T16" t="n">
-        <v>647.4124989156879</v>
+        <v>759.4415509729706</v>
       </c>
       <c r="U16" t="n">
-        <v>647.4124989156879</v>
+        <v>759.4415509729706</v>
       </c>
       <c r="V16" t="n">
-        <v>360.4569907861184</v>
+        <v>759.4415509729706</v>
       </c>
       <c r="W16" t="n">
-        <v>88.43058637240995</v>
+        <v>759.4415509729706</v>
       </c>
       <c r="X16" t="n">
-        <v>47.20655154895472</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.20655154895472</v>
+        <v>514.0497963063831</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>294.5846426621868</v>
+        <v>640.9602806813899</v>
       </c>
       <c r="C17" t="n">
-        <v>294.5846426621868</v>
+        <v>640.9602806813899</v>
       </c>
       <c r="D17" t="n">
-        <v>294.5846426621868</v>
+        <v>640.9602806813899</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5846426621868</v>
+        <v>640.9602806813899</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>640.9602806813899</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>241.4575893608671</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001357</v>
@@ -5521,7 +5521,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5533,34 +5533,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1526.868684372189</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W17" t="n">
-        <v>1122.013229783223</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X17" t="n">
-        <v>702.8707663625333</v>
+        <v>1067.259851166298</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.5846426621868</v>
+        <v>1067.259851166298</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1517.87440598441</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="C19" t="n">
-        <v>1517.87440598441</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D19" t="n">
-        <v>1517.87440598441</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E19" t="n">
-        <v>1517.87440598441</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T19" t="n">
-        <v>2360.327577447737</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="U19" t="n">
-        <v>2360.327577447737</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="V19" t="n">
-        <v>2073.372069318167</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="W19" t="n">
-        <v>1801.345664904459</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="X19" t="n">
-        <v>1555.953910237871</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="Y19" t="n">
-        <v>1517.87440598441</v>
+        <v>724.2907825224202</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>2179.344204992262</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W20" t="n">
-        <v>2179.344204992262</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X20" t="n">
-        <v>2179.344204992262</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y20" t="n">
-        <v>1771.058081291915</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2081.940945496479</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C22" t="n">
-        <v>2081.940945496479</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D22" t="n">
-        <v>1916.062952698002</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E22" t="n">
-        <v>1916.062952698002</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F22" t="n">
-        <v>1814.959646992575</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>1650.218466605094</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N22" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T22" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U22" t="n">
-        <v>2081.940945496479</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V22" t="n">
-        <v>2081.940945496479</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W22" t="n">
-        <v>2081.940945496479</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X22" t="n">
-        <v>2081.940945496479</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y22" t="n">
-        <v>2081.940945496479</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>867.018541044</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.18710732393</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="Y23" t="n">
-        <v>1782.900983623584</v>
+        <v>1293.318111528908</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1848.493579170369</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="C25" t="n">
-        <v>1848.493579170369</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="D25" t="n">
-        <v>1682.615586371891</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E25" t="n">
-        <v>1682.615586371891</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>1682.615586371891</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T25" t="n">
-        <v>2360.327577447737</v>
+        <v>676.7471065152454</v>
       </c>
       <c r="U25" t="n">
-        <v>2360.327577447737</v>
+        <v>676.7471065152454</v>
       </c>
       <c r="V25" t="n">
-        <v>2360.327577447737</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="W25" t="n">
-        <v>2360.327577447737</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="X25" t="n">
-        <v>2267.731868575248</v>
+        <v>389.7915983856759</v>
       </c>
       <c r="Y25" t="n">
-        <v>2040.312197889356</v>
+        <v>389.7915983856759</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>716.4307943255671</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="C26" t="n">
-        <v>716.4307943255671</v>
+        <v>1088.726211555613</v>
       </c>
       <c r="D26" t="n">
-        <v>716.4307943255671</v>
+        <v>1088.726211555613</v>
       </c>
       <c r="E26" t="n">
-        <v>716.4307943255671</v>
+        <v>1088.726211555613</v>
       </c>
       <c r="F26" t="n">
         <v>716.4307943255671</v>
@@ -6226,13 +6226,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2108.089956131646</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V26" t="n">
-        <v>1745.473006065473</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W26" t="n">
-        <v>1340.617551476506</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="X26" t="n">
-        <v>921.4750880558169</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="Y26" t="n">
-        <v>921.4750880558169</v>
+        <v>1526.86868437219</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765403</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1517.87440598441</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C28" t="n">
-        <v>1517.87440598441</v>
+        <v>572.6714729997408</v>
       </c>
       <c r="D28" t="n">
-        <v>1517.87440598441</v>
+        <v>406.7934802012635</v>
       </c>
       <c r="E28" t="n">
-        <v>1517.87440598441</v>
+        <v>406.7934802012635</v>
       </c>
       <c r="F28" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N28" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T28" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U28" t="n">
-        <v>2081.94094549648</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.98543736691</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W28" t="n">
-        <v>1522.959032953202</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X28" t="n">
-        <v>1517.87440598441</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y28" t="n">
-        <v>1517.87440598441</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2052.622535079674</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C29" t="n">
-        <v>1614.480062263097</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="D29" t="n">
-        <v>1178.570277437541</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="E29" t="n">
-        <v>744.7955325958366</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="F29" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
         <v>316.9281030050443</v>
@@ -6460,16 +6460,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X29" t="n">
-        <v>2052.622535079674</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2052.622535079674</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>225.029678940815</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="C31" t="n">
-        <v>225.029678940815</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="D31" t="n">
-        <v>225.029678940815</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E31" t="n">
-        <v>225.029678940815</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
-        <v>48.32262490257116</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895474</v>
@@ -6648,25 +6648,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T31" t="n">
-        <v>889.6597230122813</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="U31" t="n">
-        <v>889.6597230122813</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="V31" t="n">
-        <v>889.6597230122813</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="W31" t="n">
-        <v>889.6597230122813</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="X31" t="n">
-        <v>644.2679683456938</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="Y31" t="n">
-        <v>416.8482976598021</v>
+        <v>520.9988465953642</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C32" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6733,19 +6733,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586986</v>
+        <v>1763.900974227697</v>
       </c>
       <c r="W32" t="n">
-        <v>1081.54685999802</v>
+        <v>1763.900974227697</v>
       </c>
       <c r="X32" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="Y32" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235846</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
@@ -6888,22 +6888,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T34" t="n">
-        <v>884.5750960434898</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U34" t="n">
-        <v>606.1884640922327</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V34" t="n">
-        <v>319.2329559626632</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W34" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X34" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>717.8031088221391</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>446.7092428694776</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>446.7092428694776</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895473</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>1957.24425759636</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>1552.388803007393</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X35" t="n">
-        <v>1552.388803007393</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y35" t="n">
-        <v>1144.102679307047</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>644.2679683456938</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="C37" t="n">
-        <v>471.7062568289188</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="D37" t="n">
-        <v>305.8282640304415</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E37" t="n">
-        <v>136.0702602811787</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895473</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895473</v>
@@ -7122,25 +7122,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T37" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U37" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V37" t="n">
-        <v>889.6597230122813</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="W37" t="n">
-        <v>889.6597230122813</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="X37" t="n">
-        <v>644.2679683456938</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="Y37" t="n">
-        <v>644.2679683456938</v>
+        <v>407.3870791208724</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1313.970631731595</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="C38" t="n">
-        <v>875.8281589150183</v>
+        <v>629.1173783497206</v>
       </c>
       <c r="D38" t="n">
-        <v>439.9183740894628</v>
+        <v>629.1173783497206</v>
       </c>
       <c r="E38" t="n">
-        <v>439.9183740894628</v>
+        <v>195.3426335080158</v>
       </c>
       <c r="F38" t="n">
-        <v>439.9183740894628</v>
+        <v>195.3426335080158</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J38" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2148.556325916849</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W38" t="n">
-        <v>2148.556325916849</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X38" t="n">
-        <v>2148.556325916849</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y38" t="n">
-        <v>1740.270202216503</v>
+        <v>1067.259851166297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7292,13 +7292,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.0944902899325</v>
+        <v>219.7682630657298</v>
       </c>
       <c r="C40" t="n">
-        <v>554.5327787731575</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6547859746801</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E40" t="n">
-        <v>388.6547859746801</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F40" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
@@ -7368,16 +7368,16 @@
         <v>889.6597230122813</v>
       </c>
       <c r="V40" t="n">
-        <v>889.6597230122813</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="W40" t="n">
-        <v>889.6597230122813</v>
+        <v>330.6778104690033</v>
       </c>
       <c r="X40" t="n">
-        <v>889.6597230122813</v>
+        <v>219.7682630657298</v>
       </c>
       <c r="Y40" t="n">
-        <v>727.0944902899325</v>
+        <v>219.7682630657298</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>488.3424474085132</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C41" t="n">
-        <v>488.3424474085132</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="D41" t="n">
-        <v>488.3424474085132</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="E41" t="n">
-        <v>488.3424474085132</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="F41" t="n">
-        <v>488.3424474085132</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>88.83975608799034</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.639935903077</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1333.78448131411</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X41" t="n">
-        <v>914.642017893421</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y41" t="n">
-        <v>914.642017893421</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765398</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
         <v>79.14920158235849</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7505,7 +7505,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
         <v>1488.088567599445</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>617.362733766226</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="C43" t="n">
-        <v>444.801022249451</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D43" t="n">
-        <v>444.801022249451</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E43" t="n">
-        <v>275.0430185001883</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F43" t="n">
-        <v>275.0430185001883</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G43" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895473</v>
@@ -7599,22 +7599,22 @@
         <v>745.2331845165158</v>
       </c>
       <c r="T43" t="n">
-        <v>617.362733766226</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U43" t="n">
-        <v>617.362733766226</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="V43" t="n">
-        <v>617.362733766226</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="W43" t="n">
-        <v>617.362733766226</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="X43" t="n">
-        <v>617.362733766226</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="Y43" t="n">
-        <v>617.362733766226</v>
+        <v>679.9277891048604</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.2588091910869</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C44" t="n">
-        <v>483.1163363745102</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="D44" t="n">
-        <v>47.20655154895473</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895473</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895473</v>
@@ -7645,16 +7645,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7690,10 +7690,10 @@
         <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>921.2588091910869</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y44" t="n">
-        <v>921.2588091910869</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
         <v>79.14920158235849</v>
@@ -7769,10 +7769,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>720.1454400009515</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C46" t="n">
-        <v>547.5837284841764</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D46" t="n">
-        <v>381.7057356856991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E46" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G46" t="n">
         <v>47.20655154895473</v>
@@ -7839,19 +7839,19 @@
         <v>889.6597230122813</v>
       </c>
       <c r="U46" t="n">
-        <v>889.6597230122813</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V46" t="n">
-        <v>889.6597230122813</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="W46" t="n">
-        <v>720.1454400009515</v>
+        <v>520.0179769014339</v>
       </c>
       <c r="X46" t="n">
-        <v>720.1454400009515</v>
+        <v>274.6262222348465</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.1454400009515</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
   </sheetData>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>90.87967246293584</v>
+        <v>203.3426964931157</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>35.93931421201839</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -23433,10 +23433,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>189.0304322595256</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -23506,10 +23506,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>178.6844450927851</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>210.0505531241095</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23661,19 +23661,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.9087615367096</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>202.126042644701</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,13 +23743,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>178.6844450927846</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>74.71580850773543</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23943,22 +23943,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>76.10950077066485</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.446764768106</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>179.8172418345918</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>42.73835744761459</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>165.0635654613885</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>74.84771084948915</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>284.6791788371624</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>247.5019733639143</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -24375,10 +24375,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
@@ -24417,22 +24417,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>29.04126152356184</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>151.2680853361575</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>219.0427239871115</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24454,7 +24454,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>55.01629223713877</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24603,22 +24603,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>113.0633127301597</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>237.904056420818</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -24682,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>62.12385027915582</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>110.3230468420996</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>161.9888559635265</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>17.83275731368727</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -24903,10 +24903,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>18.24368848060152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>53.48613377075435</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25089,10 +25089,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>19.77446752940889</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811443</v>
@@ -25128,7 +25128,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>234.7909711565238</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>165.3781207952761</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -25213,16 +25213,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>265.3352856806301</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>86.9649118529596</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>189.4430605622143</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>6.722960092214578</v>
+        <v>248.8529432678471</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -25608,16 +25608,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>133.1373851906809</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.20589358390748</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25639,13 +25639,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>95.07799832449012</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>225.8074634478834</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,10 +25788,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>113.2330056128405</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>210.9504241742055</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>228.8605624260385</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>256.2658684876189</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,19 +26025,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -26079,19 +26079,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>101.4870001883548</v>
+        <v>178.9635773515768</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363547.6966943226</v>
+        <v>363547.6966943227</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363547.6966943226</v>
+        <v>363547.6966943227</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363547.6966943226</v>
+        <v>363547.6966943227</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="16">
@@ -26322,10 +26322,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>125843.4334711117</v>
+        <v>125843.4334711118</v>
       </c>
       <c r="F2" t="n">
-        <v>125843.4334711117</v>
+        <v>125843.4334711118</v>
       </c>
       <c r="G2" t="n">
         <v>125843.4334711117</v>
@@ -26337,7 +26337,7 @@
         <v>125843.4334711117</v>
       </c>
       <c r="J2" t="n">
-        <v>125843.4334711117</v>
+        <v>125843.4334711118</v>
       </c>
       <c r="K2" t="n">
         <v>125843.4334711117</v>
@@ -26349,7 +26349,7 @@
         <v>125843.4334711117</v>
       </c>
       <c r="N2" t="n">
-        <v>125843.4334711118</v>
+        <v>125843.4334711117</v>
       </c>
       <c r="O2" t="n">
         <v>125843.4334711117</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906756</v>
+        <v>551135.2009906759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025714</v>
+        <v>147050.7684025715</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>414.2905444231687</v>
+        <v>414.2905444231691</v>
       </c>
       <c r="F4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="G4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="H4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="I4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="J4" t="n">
         <v>414.290544423169</v>
@@ -26447,19 +26447,19 @@
         <v>414.290544423169</v>
       </c>
       <c r="L4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="M4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="O4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="P4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963782</v>
@@ -26499,13 +26499,13 @@
         <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-471757.1392736249</v>
+        <v>-472398.3773874005</v>
       </c>
       <c r="F6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327536</v>
       </c>
       <c r="G6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="H6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="I6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="J6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327536</v>
       </c>
       <c r="K6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327532</v>
       </c>
       <c r="L6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="M6" t="n">
-        <v>-67672.70668552068</v>
+        <v>-68313.94479929615</v>
       </c>
       <c r="N6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="O6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.8236032753</v>
       </c>
       <c r="P6" t="n">
-        <v>79378.06171705075</v>
+        <v>78736.82360327533</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
         <v>466.7019280932212</v>
@@ -26776,7 +26776,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
         <v>466.7019280932212</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619342</v>
@@ -26819,13 +26819,13 @@
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619341</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N11" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U11" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T12" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624556</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207636</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195197</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,31 +31992,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816037</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33259,7 +33259,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33517,7 +33517,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -33754,7 +33754,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -33991,7 +33991,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -35828,7 +35828,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,16 +35898,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36363,7 +36363,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,7 +36372,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816037</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562349</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36831,16 +36831,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36852,7 +36852,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37229,7 +37229,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37703,7 +37703,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -37873,10 +37873,10 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -38016,19 +38016,19 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -38119,7 +38119,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
